--- a/Documentação/Backlog/BackLog-Obsession.me.xlsx
+++ b/Documentação/Backlog/BackLog-Obsession.me.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\Obsession.me\Documentação\Backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\Obsession\Documentação\Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D7C0EA-E03D-4387-AEE3-2169553FE3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEF70F62-C44C-4FEE-8304-96128E80A7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{58DC37C0-C81F-48F5-B56A-AEE465BA63E2}"/>
+    <workbookView xWindow="2070" yWindow="2745" windowWidth="21600" windowHeight="11295" xr2:uid="{58DC37C0-C81F-48F5-B56A-AEE465BA63E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
   <si>
     <t>BackLog do Projeto</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t xml:space="preserve">Script para checar se os campos de login e cadastro estão corretos com JavaScript </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackLog </t>
   </si>
   <si>
     <t xml:space="preserve">API do site Inserindo e consultando registros nas tabelas do banco de dados para autenticar login e cadastro </t>
@@ -182,9 +179,6 @@
     <t>Criar um Menu de navegação lateral nas páginas do usuário</t>
   </si>
   <si>
-    <t>Backlog</t>
-  </si>
-  <si>
     <t>1.9</t>
   </si>
   <si>
@@ -195,9 +189,6 @@
   </si>
   <si>
     <t>2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar Votação: "Episódio Favorito" em NGE;                                    Adicionar Votação : "Personagem favorito em TEOE";                               Adicionar Votação : "Rebuild Favorito" em Rebuilds Evangelion.   </t>
   </si>
   <si>
     <r>
@@ -230,9 +221,6 @@
     <t>Criação dos Slides p/ Apresentação</t>
   </si>
   <si>
-    <t>Estruturar Apresentar, Fazer os slides Incluindo:                                              Contexot do projeto, Conceitos do sócioemocional, uso do GIT e toda a documentação</t>
-  </si>
-  <si>
     <t>2.1</t>
   </si>
   <si>
@@ -270,13 +258,67 @@
   </si>
   <si>
     <t>Usar HTML e CSS para deixar as paginas do site responsivas para melhor visualização em outros dispositivos com telas diferentes</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>Estruturar Apresentar, Fazer os slides Incluindo:                                              Contexto do projeto, Conceitos do sócioemocional, uso do GIT e toda a documentação</t>
+  </si>
+  <si>
+    <t>4.0 Inserção dos Dados do cadastro no Chart JS</t>
+  </si>
+  <si>
+    <t>Criar um pagina para o chart js e importar os dados dos personagens favoritos do cadastro e montar um ranking de acordo com os personagens escolhidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adicionar Votação: "Episódio Favorito" em NGE;                                      </t>
+  </si>
+  <si>
+    <t>Congelado</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>Adicionar identificação usuário após o login</t>
+  </si>
+  <si>
+    <t>Puxar do banco de dados o nome do usuário da conta que está logada no momento</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Botão de idiomas</t>
+  </si>
+  <si>
+    <t>Adicionar versão do site em EN com um botão para trocar de idioma no header</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>5.0 Aplicativo Obsession.me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criar uma Webview page básica para puxar o endereço localhost:3333 </t>
+  </si>
+  <si>
+    <t>Adicionar Botão "Esqueci minha senha"</t>
+  </si>
+  <si>
+    <t>Criar página para recuperação de senha que identifica usuário pelo email para retornar a senha cadastrada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,8 +414,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -435,8 +502,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -527,12 +630,152 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -543,14 +786,21 @@
       <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
@@ -562,26 +812,55 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
         <color rgb="FF7F7F7F"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
@@ -589,12 +868,21 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -602,19 +890,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -634,56 +909,14 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="5"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -697,88 +930,208 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="15" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="22" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="23" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="24" xfId="5" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="24" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="25" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="26" xfId="5" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="27" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="28" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="21" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Accent1" xfId="6" builtinId="29"/>
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
-    <cellStyle name="Input" xfId="5" builtinId="20"/>
+    <cellStyle name="Bom" xfId="1" builtinId="26"/>
+    <cellStyle name="Célula de Verificação" xfId="3" builtinId="23"/>
+    <cellStyle name="Ênfase1" xfId="6" builtinId="29"/>
+    <cellStyle name="Entrada" xfId="5" builtinId="20"/>
+    <cellStyle name="Hiperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Ruim" xfId="2" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF131313"/>
+      <color rgb="FFFCE4D6"/>
+      <color rgb="FFFFC7CE"/>
       <color rgb="FF00FFFF"/>
-      <color rgb="FF131313"/>
     </mruColors>
   </colors>
   <extLst>
@@ -799,13 +1152,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>351064</xdr:rowOff>
+      <xdr:rowOff>246289</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>548367</xdr:colOff>
+      <xdr:colOff>1660929</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>718657</xdr:rowOff>
+      <xdr:rowOff>800100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -828,8 +1181,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="351064"/>
-          <a:ext cx="2197553" cy="367593"/>
+          <a:off x="0" y="246289"/>
+          <a:ext cx="3308754" cy="553811"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -840,23 +1193,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>702130</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>182336</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>262617</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>395772</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>904408</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76572</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Imagem 1">
+        <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9303B480-DB79-4C27-9108-AB07BB6F552B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{328F53F2-D60B-47BE-BFB8-E7766A34D5B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -865,15 +1218,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8648701" y="262617"/>
-          <a:ext cx="1800027" cy="641791"/>
+          <a:off x="9916886" y="0"/>
+          <a:ext cx="1665886" cy="1217839"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -886,7 +1245,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1182,10 +1541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA187E83-95C0-4794-B52F-24D97F20555F}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="79" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,330 +1562,490 @@
     <col min="12" max="12" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:13" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="4"/>
-      <c r="J1" s="47" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="45"/>
+    </row>
+    <row r="2" spans="1:13" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="87"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="33">
+        <v>3</v>
+      </c>
+      <c r="I3" s="43"/>
+      <c r="J3" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="86"/>
+    </row>
+    <row r="4" spans="1:13" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33">
+        <v>3</v>
+      </c>
+      <c r="I4" s="44"/>
+      <c r="J4" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="47"/>
-    </row>
-    <row r="2" spans="1:13" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="K4" s="86"/>
+    </row>
+    <row r="5" spans="1:13" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="34">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="I5" s="11"/>
+      <c r="J5" s="86" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="86"/>
+    </row>
+    <row r="6" spans="1:13" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="61"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="34">
         <v>5</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="8" t="s">
+    </row>
+    <row r="7" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="54"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="54"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="54"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="34">
+        <v>5</v>
+      </c>
+      <c r="K9" s="25"/>
+    </row>
+    <row r="10" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="54"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="58"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="38">
+        <v>3</v>
+      </c>
+      <c r="M13" s="68"/>
+    </row>
+    <row r="14" spans="1:13" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="46"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" ht="35.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="D15" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="36" t="s">
+      <c r="B16" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="34">
         <v>13</v>
       </c>
-      <c r="D3" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="9">
-        <v>3</v>
-      </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="H4" s="9">
-        <v>3</v>
-      </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+    </row>
+    <row r="17" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="37" t="s">
+      <c r="B17" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="63"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="34">
         <v>21</v>
       </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="10">
-        <v>3</v>
-      </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+    </row>
+    <row r="18" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="H6" s="10">
+      <c r="B18" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="83" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="46"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="82">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="49">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+    <row r="21" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="18"/>
-      <c r="H8" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="H9" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="18"/>
-      <c r="H10" s="10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="H11" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="43"/>
-      <c r="H13" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="26"/>
-      <c r="H14" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="51"/>
-      <c r="H16" s="49">
-        <v>13</v>
-      </c>
+      <c r="B21" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D22" s="76"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D23" s="76"/>
+      <c r="F23" s="68"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D24" s="76"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D25" s="76"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D26" s="76"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L27" s="68"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D31" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" xr:uid="{82D962DE-7BB0-4FB9-BFC7-FB114C7CEEC2}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{266D2044-7B63-4468-B6D3-84C6B5DE1985}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>